--- a/Brazil Serie A_2022.xlsx
+++ b/Brazil Serie A_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrorodrigues/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90524207-5E50-4347-AF29-978BC5A920A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82E9673-AE35-D745-B90C-71696AAEB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="282">
   <si>
     <t>League</t>
   </si>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28935,7 +28935,7 @@
         <v>42</v>
       </c>
       <c r="D222" s="2">
-        <v>44787.791666666657</v>
+        <v>44793.791666666664</v>
       </c>
       <c r="E222">
         <v>23</v>
@@ -28954,6 +28954,99 @@
       </c>
       <c r="J222">
         <v>12.63</v>
+      </c>
+      <c r="K222">
+        <v>1.5</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>10</v>
+      </c>
+      <c r="N222">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O222">
+        <v>1.3</v>
+      </c>
+      <c r="P222">
+        <v>1.05</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="U222">
+        <v>3</v>
+      </c>
+      <c r="V222">
+        <v>2.75</v>
+      </c>
+      <c r="W222">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X222">
+        <v>1.42</v>
+      </c>
+      <c r="Y222">
+        <v>2.25</v>
+      </c>
+      <c r="Z222">
+        <v>8.35</v>
+      </c>
+      <c r="AA222">
+        <v>2.87</v>
+      </c>
+      <c r="AB222">
+        <v>1.57</v>
+      </c>
+      <c r="AC222">
+        <v>3</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>3</v>
+      </c>
+      <c r="AF222">
+        <v>1.95</v>
+      </c>
+      <c r="AG222">
+        <v>1.78</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ222">
+        <v>7</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>10</v>
+      </c>
+      <c r="AM222">
+        <v>10</v>
+      </c>
+      <c r="AN222">
+        <v>17</v>
+      </c>
+      <c r="AO222">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
